--- a/Proyecto/DatosInformeCantidad.xlsx
+++ b/Proyecto/DatosInformeCantidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341602AE-D14D-41D5-B041-256C687C905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC51BFEA-5DD3-4597-9F0C-7D000EB746AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="10188" windowHeight="8964" xr2:uid="{B4520937-23AA-49D6-87AE-EFA205CF88C5}"/>
   </bookViews>
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>22.375412834718603</v>
+        <v>23.939007540167388</v>
       </c>
       <c r="F2">
-        <v>62.375412834718603</v>
+        <v>63.939007540167388</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -496,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>27.097069567347603</v>
+        <v>25.993667941114538</v>
       </c>
       <c r="F3">
-        <v>37.097069567347603</v>
+        <v>35.993667941114538</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -519,16 +519,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>55.532695960633461</v>
+        <v>57.273336078410736</v>
       </c>
       <c r="F4">
-        <v>122.09511908201459</v>
+        <v>124.27333607841074</v>
       </c>
       <c r="G4">
-        <v>66.56242312138113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -542,16 +542,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>43.38134112166199</v>
+        <v>40.836040511607941</v>
       </c>
       <c r="F5">
-        <v>58.468474899711055</v>
+        <v>57.885153056110859</v>
       </c>
       <c r="G5">
-        <v>15.087133778049061</v>
+        <v>17.049112544502918</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>16.89370736213565</v>
+        <v>15.073883963945057</v>
       </c>
       <c r="F6">
-        <v>21.89370736213565</v>
+        <v>20.073883963945057</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>7.0280043284300753</v>
+        <v>6.3083230612774486</v>
       </c>
       <c r="F7">
-        <v>30.602813817440921</v>
+        <v>29.447101741871354</v>
       </c>
       <c r="G7">
-        <v>23.574809489010846</v>
+        <v>23.138778680593905</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCantidad.xlsx
+++ b/Proyecto/DatosInformeCantidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC51BFEA-5DD3-4597-9F0C-7D000EB746AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E6BDAC-7126-42FF-A327-54AD97017EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="10188" windowHeight="8964" xr2:uid="{B4520937-23AA-49D6-87AE-EFA205CF88C5}"/>
+    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{B4520937-23AA-49D6-87AE-EFA205CF88C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>23.939007540167388</v>
+        <v>22.297279146052531</v>
       </c>
       <c r="F2">
-        <v>63.939007540167388</v>
+        <v>62.297279146052531</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -496,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>25.993667941114538</v>
+        <v>25.937949328066068</v>
       </c>
       <c r="F3">
-        <v>35.993667941114538</v>
+        <v>35.937949328066068</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>57.273336078410736</v>
+        <v>56.337519573330894</v>
       </c>
       <c r="F4">
-        <v>124.27333607841074</v>
+        <v>123.33751957333089</v>
       </c>
       <c r="G4">
         <v>67</v>
@@ -542,16 +542,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>40.836040511607941</v>
+        <v>42.544319953172931</v>
       </c>
       <c r="F5">
-        <v>57.885153056110859</v>
+        <v>58.264999964386945</v>
       </c>
       <c r="G5">
-        <v>17.049112544502918</v>
+        <v>15.720680011214016</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>15.073883963945057</v>
+        <v>16.479780356013674</v>
       </c>
       <c r="F6">
-        <v>20.073883963945057</v>
+        <v>21.479780356013674</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>6.3083230612774486</v>
+        <v>5.2869316089901979</v>
       </c>
       <c r="F7">
-        <v>29.447101741871354</v>
+        <v>29.393117099974894</v>
       </c>
       <c r="G7">
-        <v>23.138778680593905</v>
+        <v>24.106185490984696</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCantidad.xlsx
+++ b/Proyecto/DatosInformeCantidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E6BDAC-7126-42FF-A327-54AD97017EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF1BCB-B41F-4D55-9806-5791D1F24307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{B4520937-23AA-49D6-87AE-EFA205CF88C5}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{B4520937-23AA-49D6-87AE-EFA205CF88C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,10 +476,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>22.297279146052531</v>
+        <v>23.026135916399596</v>
       </c>
       <c r="F2">
-        <v>62.297279146052531</v>
+        <v>63.026135916399596</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>25.937949328066068</v>
+        <v>26.999349167125501</v>
       </c>
       <c r="F3">
-        <v>35.937949328066068</v>
+        <v>36.999349167125501</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -522,10 +522,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>56.337519573330894</v>
+        <v>55.722820547422756</v>
       </c>
       <c r="F4">
-        <v>123.33751957333089</v>
+        <v>122.72282054742276</v>
       </c>
       <c r="G4">
         <v>67</v>
@@ -545,13 +545,13 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>42.544319953172931</v>
+        <v>40.913716834391458</v>
       </c>
       <c r="F5">
-        <v>58.264999964386945</v>
+        <v>57.489596844849721</v>
       </c>
       <c r="G5">
-        <v>15.720680011214016</v>
+        <v>16.575880010458263</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>16.479780356013674</v>
+        <v>14.090463402990512</v>
       </c>
       <c r="F6">
-        <v>21.479780356013674</v>
+        <v>19.090463402990512</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -591,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>5.2869316089901979</v>
+        <v>6.2388138449837101</v>
       </c>
       <c r="F7">
-        <v>29.393117099974894</v>
+        <v>29.435975200606343</v>
       </c>
       <c r="G7">
-        <v>24.106185490984696</v>
+        <v>23.197161355622633</v>
       </c>
     </row>
   </sheetData>
